--- a/Grouping in TF_DRAFT.xlsx
+++ b/Grouping in TF_DRAFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Strategic Solutions\Designs &amp; Specs\TF-New-Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4D130-06D0-400B-B8BE-1ABFCD5E1942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F355F3-7323-4CE3-8188-5529DDB5F1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA0552F2-4AC1-4F5F-877A-D1AE6308DB9D}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Address Overrride</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>What If Tests</t>
   </si>
@@ -44,42 +41,18 @@
     <t>Pension_What If</t>
   </si>
   <si>
-    <t xml:space="preserve"> Batch Tests</t>
-  </si>
-  <si>
-    <t>Companies</t>
-  </si>
-  <si>
-    <t>Workistes</t>
-  </si>
-  <si>
     <t>Custom Formulas</t>
   </si>
   <si>
-    <t>Custom Tax Codes</t>
-  </si>
-  <si>
-    <t>Custom Payments</t>
-  </si>
-  <si>
-    <t>Custom Garnishments</t>
-  </si>
-  <si>
     <t>Custom Garnishment Formulas</t>
   </si>
   <si>
     <t>Disposable Overrides</t>
   </si>
   <si>
-    <t>Garnishment Groups</t>
-  </si>
-  <si>
     <t>Custom Tax Payment Overrides</t>
   </si>
   <si>
-    <t>Employee Groups</t>
-  </si>
-  <si>
     <t>Group Overrides</t>
   </si>
   <si>
@@ -92,9 +65,6 @@
     <t>Garnishment Formula Overrides</t>
   </si>
   <si>
-    <t>Payment Codes</t>
-  </si>
-  <si>
     <t>Message Viewer</t>
   </si>
   <si>
@@ -108,11 +78,6 @@
   </si>
   <si>
     <t>Tax Locator</t>
-  </si>
-  <si>
-    <t>Mapping Tools
--Tax Codes
--Tax TYpes</t>
   </si>
   <si>
     <t>Reporting Tools
@@ -121,23 +86,91 @@
 - User Data</t>
   </si>
   <si>
-    <t>Section 1</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>GROUPING in TaxFactory</t>
+    <t>ADMIN/CONFIGURATION</t>
+  </si>
+  <si>
+    <t>CUSTOM ACTIONS</t>
+  </si>
+  <si>
+    <t>GENERAL ACTIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                     GROUPING in TaxFactory</t>
+  </si>
+  <si>
+    <t>TESTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Overrride
+</t>
+  </si>
+  <si>
+    <t>Batch Test</t>
+  </si>
+  <si>
+    <t>Custom Payment Exceptions</t>
+  </si>
+  <si>
+    <t>Custom Payments
+- on creating Custom Payment Exceptions displays in Usage</t>
+  </si>
+  <si>
+    <t>Custom Garnishments
+- on creating Custom Garnishment Formulas displays in Usage</t>
+  </si>
+  <si>
+    <t>Custom Tax Codes
+- on creating Custom Formulas displays in Usage
+- on creating Custom Tax Payment Override displays in Usage
+- on creating Custom Garnishment Formulas displays in Usage</t>
+  </si>
+  <si>
+    <t>Custom Nexus Data</t>
+  </si>
+  <si>
+    <t>Garnishment Groups
+-on creating Disposable Overrides displays in Usage
+-on creating Garnishment Formula Override displays in Usage</t>
+  </si>
+  <si>
+    <t>Employee Groups
+- On creating a Group Override displays in Usage
+- On creating a Payment Override displays in Usage
+- On creating a Reciprocal Override displays in Usage</t>
+  </si>
+  <si>
+    <t>Mapping Tools
+-Tax Codes
+-Tax Types
+-Payment Codes</t>
+  </si>
+  <si>
+    <t>Worksites</t>
+  </si>
+  <si>
+    <r>
+      <t>Companies
+-On creating a Optional Rate Override  displays in the Usage
+-On creating a Unemployment Override  displays in the Usage
+-On creating a worksite  displays in the Usage
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On creating a Custom Nexus Data displays in the Usage</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +182,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,6 +227,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -221,23 +275,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF169B5-FEFD-4771-B03A-EAC43924D4AA}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,144 +633,150 @@
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Grouping in TF_DRAFT.xlsx
+++ b/Grouping in TF_DRAFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Strategic Solutions\Designs &amp; Specs\TF-New-Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F355F3-7323-4CE3-8188-5529DDB5F1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B15FFB0-7AFB-4150-B491-7E488460B646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA0552F2-4AC1-4F5F-877A-D1AE6308DB9D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>What If Tests</t>
   </si>
@@ -84,9 +84,6 @@
 - Tax Details
 - Quick Formulas
 - User Data</t>
-  </si>
-  <si>
-    <t>ADMIN/CONFIGURATION</t>
   </si>
   <si>
     <t>CUSTOM ACTIONS</t>
@@ -164,6 +161,44 @@
       </rPr>
       <t>On creating a Custom Nexus Data displays in the Usage</t>
     </r>
+  </si>
+  <si>
+    <t>DATASET CONFIGURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYSTEM ADMIN TOOLS</t>
+  </si>
+  <si>
+    <t>Access Tools
+--No. of Datasets Defined
+--No. Of logins Defined
+--Logins and Permissions
+--Data Sets
+--Favorite Links
+--Audit Log Viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Tools
+--Custom Backup/Restore
+--Custom Backup/Restore Status
+--Optional/Unemployment Rate Override Backup
+--Optional/Unemployment Rate Override Restore
+--Database Load
+--Database Load Status
+--Install Machine Key
+</t>
+  </si>
+  <si>
+    <t>Maintenance Tools
+--Currently installed :
+--Regulatory bulletin level: 20
+--Locator V3 package level: 10
+--Cyclic level: B
+--Manual Update
+--Manual Update Status</t>
+  </si>
+  <si>
+    <t>Configuration</t>
   </si>
 </sst>
 </file>
@@ -275,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -290,23 +325,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF169B5-FEFD-4771-B03A-EAC43924D4AA}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,31 +665,34 @@
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="4" max="5" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -666,77 +701,90 @@
     </row>
     <row r="3" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -746,36 +794,36 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>28</v>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
